--- a/backend/src/excel_handler/files/GD30.xlsx
+++ b/backend/src/excel_handler/files/GD30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,6 +439,11 @@
           <t>13-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -449,6 +454,9 @@
       <c r="B2" t="n">
         <v>6531.33</v>
       </c>
+      <c r="C2" t="n">
+        <v>13990.19</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -459,6 +467,9 @@
       <c r="B3" t="n">
         <v>6531.33</v>
       </c>
+      <c r="C3" t="n">
+        <v>13990.19</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -469,6 +480,9 @@
       <c r="B4" t="n">
         <v>6531.33</v>
       </c>
+      <c r="C4" t="n">
+        <v>13990.19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/src/excel_handler/files/GD30.xlsx
+++ b/backend/src/excel_handler/files/GD30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>20-01-2023</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -457,6 +462,9 @@
       <c r="C2" t="n">
         <v>13990.19</v>
       </c>
+      <c r="D2" t="n">
+        <v>25737.43</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -470,6 +478,9 @@
       <c r="C3" t="n">
         <v>13990.19</v>
       </c>
+      <c r="D3" t="n">
+        <v>25737.43</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -483,6 +494,9 @@
       <c r="C4" t="n">
         <v>13990.19</v>
       </c>
+      <c r="D4" t="n">
+        <v>25737.43</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/src/excel_handler/files/GD30.xlsx
+++ b/backend/src/excel_handler/files/GD30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>27-01-2023</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -465,6 +470,9 @@
       <c r="D2" t="n">
         <v>25737.43</v>
       </c>
+      <c r="E2" t="n">
+        <v>46892.29</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -481,6 +489,9 @@
       <c r="D3" t="n">
         <v>25737.43</v>
       </c>
+      <c r="E3" t="n">
+        <v>46892.29</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -496,6 +507,9 @@
       </c>
       <c r="D4" t="n">
         <v>25737.43</v>
+      </c>
+      <c r="E4" t="n">
+        <v>46892.29</v>
       </c>
     </row>
   </sheetData>
